--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -114,6 +114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">status </t>
     </r>
     <r>
@@ -162,6 +169,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>cash_num</t>
     </r>
     <r>
@@ -187,6 +201,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>exp_num</t>
     </r>
     <r>
@@ -212,6 +233,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>rep_num</t>
     </r>
     <r>
@@ -237,6 +265,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>housework_num</t>
     </r>
     <r>
@@ -294,6 +329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>reward_card_id</t>
     </r>
     <r>
@@ -505,8 +547,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
@@ -534,44 +576,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -587,17 +591,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -615,6 +611,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -623,19 +626,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,15 +650,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +675,45 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,187 +754,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,21 +959,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,17 +987,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -990,20 +1011,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,6 +1036,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1026,10 +1068,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1038,133 +1080,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,7 +1577,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -55,7 +55,7 @@
 2=换服装</t>
   </si>
   <si>
-    <t>奖励装扮资源路径</t>
+    <t>奖励装扮id</t>
   </si>
   <si>
     <t>解锁场景类型
@@ -64,7 +64,7 @@
 2=换场景</t>
   </si>
   <si>
-    <t>奖励场景资源路径</t>
+    <t>奖励场景id</t>
   </si>
   <si>
     <r>
@@ -393,14 +393,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ornament_path</t>
+      <t>ornament_id</t>
     </r>
     <r>
       <rPr>
@@ -420,7 +413,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>string</t>
+      <t>int</t>
     </r>
   </si>
   <si>
@@ -457,23 +450,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>scene_path</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">scene_id </t>
     </r>
     <r>
       <rPr>
@@ -547,11 +524,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -576,6 +553,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -591,28 +575,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,9 +605,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,6 +658,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,23 +682,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,31 +731,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,151 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,16 +973,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1037,26 +1023,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1068,145 +1045,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,7 +1554,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1593,9 +1570,9 @@
     <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="16.875" customWidth="1"/>
-    <col min="12" max="12" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="60.75" spans="1:14">

--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -27,7 +27,7 @@
 1=提升</t>
   </si>
   <si>
-    <t>升级所需经验</t>
+    <t>升级所需成长点</t>
   </si>
   <si>
     <t>份例次数</t>
@@ -137,14 +137,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>required_exp</t>
+      <t>required_growth</t>
     </r>
     <r>
       <rPr>
@@ -393,6 +386,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>ornament_id</t>
     </r>
     <r>
@@ -450,6 +450,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">scene_id </t>
     </r>
     <r>
@@ -524,11 +531,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -553,121 +560,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,7 +582,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,6 +623,83 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -731,187 +738,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,48 +943,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1014,6 +979,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1037,6 +1020,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1045,10 +1052,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,133 +1064,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1554,7 +1561,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1562,7 +1569,7 @@
     <col min="1" max="1" width="7.25" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="8.125" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="10.875" customWidth="1"/>
@@ -1619,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" spans="1:14">
+    <row r="2" s="2" customFormat="1" ht="33" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>

--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -68,14 +68,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">level </t>
+      <t xml:space="preserve">id </t>
     </r>
     <r>
       <rPr>
@@ -137,6 +130,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>required_growth</t>
     </r>
     <r>
@@ -531,10 +531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="24">
@@ -560,14 +560,122 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,124 +690,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,181 +738,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,17 +947,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,41 +991,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1044,6 +1014,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1052,10 +1052,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,133 +1064,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1561,7 +1561,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1626,7 +1626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33" spans="1:14">
+    <row r="2" s="2" customFormat="1" ht="33.75" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>

--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>等级</t>
   </si>
@@ -52,7 +52,7 @@
     <t>解锁装扮类型
 0=无
 1=装饰
-2=换服装</t>
+2=服装</t>
   </si>
   <si>
     <t>奖励装扮id</t>
@@ -67,7 +67,17 @@
     <t>奖励场景id</t>
   </si>
   <si>
-    <r>
+    <t>房间入口</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -472,9 +482,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">entry </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+  </si>
+  <si>
     <t>无品庶女</t>
   </si>
   <si>
+    <t>boudoir</t>
+  </si>
+  <si>
     <t>否极泰来</t>
   </si>
   <si>
@@ -482,6 +510,9 @@
   </si>
   <si>
     <t>嫡女</t>
+  </si>
+  <si>
+    <t>west_room</t>
   </si>
   <si>
     <t>十里红妆</t>
@@ -531,13 +562,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,37 +590,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -611,16 +635,76 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -635,49 +719,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -690,14 +742,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,8 +761,17 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,13 +792,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +876,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,49 +936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,49 +954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,56 +982,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -948,12 +1008,29 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBBBBBB"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBBBBBB"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBBBBBB"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBBBBBB"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,11 +1059,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,23 +1101,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,6 +1121,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1052,10 +1140,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1064,137 +1152,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1224,6 +1312,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1280,16 +1380,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="0095A3C6"/>
-      <color rgb="007FB48A"/>
       <color rgb="003187F1"/>
       <color rgb="005CA6F9"/>
       <color rgb="00478A54"/>
       <color rgb="003B65B1"/>
       <color rgb="00397BB3"/>
       <color rgb="00488BC4"/>
+      <color rgb="00328C85"/>
+      <color rgb="0048A088"/>
+      <color rgb="0044B36E"/>
       <color rgb="003CAAA3"/>
-      <color rgb="00328C85"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1558,10 +1658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1580,9 +1680,10 @@
     <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="11.875" customWidth="1"/>
     <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="60.75" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="60.75" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1625,57 +1726,63 @@
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" spans="1:14">
+    <row r="2" s="2" customFormat="1" ht="33.75" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:14">
+    <row r="3" ht="16.5" spans="1:15">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1713,13 +1820,16 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
+      <c r="O3" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:14">
+    <row r="4" ht="16.5" spans="1:15">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -1757,13 +1867,16 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" ht="16.5" spans="1:14">
+    <row r="5" ht="17.25" spans="1:15">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1801,13 +1914,16 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:14">
+    <row r="6" ht="23.25" spans="1:15">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1845,13 +1961,16 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" ht="16.5" spans="1:14">
+    <row r="7" ht="16.5" spans="1:15">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1889,13 +2008,16 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="16.5" spans="1:14">
+    <row r="8" ht="16.5" spans="1:15">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1933,13 +2055,16 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" spans="1:14">
+    <row r="9" ht="16.5" spans="1:15">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1977,13 +2102,16 @@
       <c r="N9" s="6">
         <v>0</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" spans="1:14">
+    <row r="10" ht="16.5" spans="1:15">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" s="7">
         <v>0</v>
@@ -2021,13 +2149,16 @@
       <c r="N10" s="6">
         <v>0</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" spans="1:14">
+    <row r="11" ht="16.5" spans="1:15">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2065,13 +2196,16 @@
       <c r="N11" s="6">
         <v>0</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" ht="16.5" spans="1:14">
+    <row r="12" ht="16.5" spans="1:15">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" s="7">
         <v>0</v>
@@ -2109,13 +2243,16 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" ht="16.5" spans="1:14">
+    <row r="13" ht="16.5" spans="1:15">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2153,13 +2290,16 @@
       <c r="N13" s="6">
         <v>0</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" ht="16.5" spans="1:14">
+    <row r="14" ht="16.5" spans="1:15">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -2197,13 +2337,16 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" ht="16.5" spans="1:14">
+    <row r="15" ht="16.5" spans="1:15">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2241,13 +2384,16 @@
       <c r="N15" s="6">
         <v>0</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" ht="16.5" spans="1:14">
+    <row r="16" ht="16.5" spans="1:15">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -2285,13 +2431,16 @@
       <c r="N16" s="6">
         <v>0</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" ht="16.5" spans="1:14">
+    <row r="17" ht="16.5" spans="1:15">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2329,13 +2478,16 @@
       <c r="N17" s="6">
         <v>0</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" ht="16.5" spans="1:14">
+    <row r="18" ht="16.5" spans="1:15">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -2373,13 +2525,16 @@
       <c r="N18" s="6">
         <v>0</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" ht="16.5" spans="1:14">
+    <row r="19" ht="16.5" spans="1:15">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2417,13 +2572,16 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" ht="16.5" spans="1:14">
+    <row r="20" ht="16.5" spans="1:15">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -2459,6 +2617,9 @@
         <v>0</v>
       </c>
       <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>0</v>
       </c>
     </row>

--- a/common/PlayerUpgrade.xlsx
+++ b/common/PlayerUpgrade.xlsx
@@ -483,6 +483,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">entry </t>
     </r>
     <r>
@@ -491,25 +498,26 @@
         <u/>
         <sz val="11"/>
         <color theme="0"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>string</t>
     </r>
   </si>
   <si>
-    <t>无品庶女</t>
+    <t>商门素女</t>
   </si>
   <si>
     <t>boudoir</t>
   </si>
   <si>
-    <t>否极泰来</t>
-  </si>
-  <si>
-    <t>风生水起</t>
-  </si>
-  <si>
-    <t>嫡女</t>
+    <t>清水丽人</t>
+  </si>
+  <si>
+    <t>高门贵女</t>
+  </si>
+  <si>
+    <t>掌权嫡女</t>
   </si>
   <si>
     <t>west_room</t>
@@ -518,19 +526,19 @@
     <t>十里红妆</t>
   </si>
   <si>
-    <t>夫人</t>
-  </si>
-  <si>
-    <t>遭逢巨变</t>
-  </si>
-  <si>
-    <t>正面应敌</t>
-  </si>
-  <si>
-    <t>柳暗花明</t>
-  </si>
-  <si>
-    <t>执掌中馈</t>
+    <t>簪缨夫人</t>
+  </si>
+  <si>
+    <t>小阁藏春</t>
+  </si>
+  <si>
+    <t>名门闺杀</t>
+  </si>
+  <si>
+    <t>盛唐芳华</t>
+  </si>
+  <si>
+    <t>掌家名姝</t>
   </si>
   <si>
     <t>封诰</t>
@@ -554,7 +562,7 @@
     <t>一品国夫人</t>
   </si>
   <si>
-    <t>韶国夫人</t>
+    <t>昭国夫人</t>
   </si>
 </sst>
 </file>
@@ -562,13 +570,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +596,12 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -604,6 +618,128 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -612,127 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -740,9 +755,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,7 +782,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -804,61 +817,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,19 +925,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,91 +973,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,17 +1057,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,11 +1087,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,28 +1137,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1140,10 +1153,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,137 +1165,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,25 +1317,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,7 +1680,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1714,19 +1733,19 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1773,7 +1792,7 @@
       <c r="N2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1784,22 +1803,22 @@
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>3</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>3</v>
       </c>
       <c r="I3" s="6">
@@ -1820,7 +1839,7 @@
       <c r="N3" s="6">
         <v>0</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="14" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1831,22 +1850,22 @@
       <c r="B4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
         <v>240</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>4</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>4</v>
       </c>
       <c r="I4" s="6">
@@ -1878,22 +1897,22 @@
       <c r="B5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
         <v>480</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>5</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>5</v>
       </c>
       <c r="I5" s="6">
@@ -1918,29 +1937,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="23.25" spans="1:15">
+    <row r="6" ht="17.25" spans="1:15">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>720</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>6</v>
       </c>
       <c r="I6" s="6">
@@ -1961,7 +1980,7 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1972,22 +1991,22 @@
       <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>1200</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>7</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>7</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>7</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>7</v>
       </c>
       <c r="I7" s="6">
@@ -2019,22 +2038,22 @@
       <c r="B8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>1920</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>8</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>8</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
       <c r="I8" s="6">
@@ -2066,22 +2085,22 @@
       <c r="B9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>3120</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>9</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>9</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>9</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>9</v>
       </c>
       <c r="I9" s="6">
@@ -2113,22 +2132,22 @@
       <c r="B10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
         <v>5544</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>10</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>10</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>10</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>10</v>
       </c>
       <c r="I10" s="6">
@@ -2160,22 +2179,22 @@
       <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
         <v>9530.4</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>11</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>11</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>11</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>11</v>
       </c>
       <c r="I11" s="6">
@@ -2207,22 +2226,22 @@
       <c r="B12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
         <v>16581.84</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>12</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>12</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>12</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>12</v>
       </c>
       <c r="I12" s="6">
@@ -2254,22 +2273,22 @@
       <c r="B13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>28723.464</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>13</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>13</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>13</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="8">
         <v>13</v>
       </c>
       <c r="I13" s="6">
@@ -2298,25 +2317,25 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="9">
         <v>49835.8344</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>14</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>14</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>14</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <v>14</v>
       </c>
       <c r="I14" s="6">
@@ -2345,25 +2364,25 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>1</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="9">
         <v>94271.15808</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>15</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>15</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>15</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>15</v>
       </c>
       <c r="I15" s="6">
@@ -2392,25 +2411,25 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>187339.090224</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>16</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>16</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>16</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="8">
         <v>16</v>
       </c>
       <c r="I16" s="6">
@@ -2439,25 +2458,25 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="9">
         <v>394254.3476256</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>17</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>17</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>17</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <v>17</v>
       </c>
       <c r="I17" s="6">
@@ -2486,25 +2505,25 @@
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="9">
         <v>872390.1567744</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>18</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>18</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>18</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="8">
         <v>18</v>
       </c>
       <c r="I18" s="6">
@@ -2533,25 +2552,25 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="9">
         <v>2026631.20704</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>19</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>19</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>19</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="8">
         <v>19</v>
       </c>
       <c r="I19" s="6">
@@ -2580,25 +2599,25 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="9">
         <v>4928336.31848448</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>20</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>20</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>20</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <v>20</v>
       </c>
       <c r="I20" s="6">
